--- a/biology/Médecine/Louis_Foureau_de_Beauregard/Louis_Foureau_de_Beauregard.xlsx
+++ b/biology/Médecine/Louis_Foureau_de_Beauregard/Louis_Foureau_de_Beauregard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Fourreau  (18 mai 1774, Moncontour - 30 novembre 1848, Paris) est un homme politique français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Louis Fourreau, notaire et contrôleur des actes, et de Delphine Bourgnon, Louis Foureau de Beauregard sort diplômé de l'École de médecine de Paris en septembre 1803.
 Il devient, à leur création en prairial an XI, médecins des Dispensaires parisiens et ce jusqu'en janvier 1811. Nommé en juin 1810 médecin par quartier de la Maison de l'Empereur et de l'Infirmerie impériale, il exerce ces fonctions jusqu'à mars 1814, puis à nouveau pendant les Cent Jours. Entre temps, il suit Napoléon Bonaparte à l'île d'Elbe.
@@ -545,7 +559,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Louis Fourreau de Beauregard, dans Robert et Cougny, Dictionnaire législatif, 1889 (détail de l’édition).</t>
         </is>
